--- a/SBPSO DS1/SBPSO KNN1.xlsx
+++ b/SBPSO DS1/SBPSO KNN1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Dataset</t>
   </si>
@@ -38,6 +38,33 @@
   </si>
   <si>
     <t>ant-1.7</t>
+  </si>
+  <si>
+    <t>camel-1.6</t>
+  </si>
+  <si>
+    <t>ivy-2.0</t>
+  </si>
+  <si>
+    <t>jedit-4.3</t>
+  </si>
+  <si>
+    <t>log4j-1.2</t>
+  </si>
+  <si>
+    <t>lucene-2.4</t>
+  </si>
+  <si>
+    <t>poi-3.0</t>
+  </si>
+  <si>
+    <t>tomcat-6</t>
+  </si>
+  <si>
+    <t>xalan-2.6</t>
+  </si>
+  <si>
+    <t>xerces-1.4</t>
   </si>
 </sst>
 </file>
@@ -395,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +459,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>0.6710096588145369</v>
+        <v>0.6764489340172372</v>
       </c>
       <c r="D2">
         <v>0.7682926829268293</v>
@@ -441,13 +468,247 @@
         <v>0.7682926829268293</v>
       </c>
       <c r="F2">
-        <v>0.7163634715089969</v>
+        <v>0.7194515064616119</v>
       </c>
       <c r="G2">
         <v>0.8712737127371274</v>
       </c>
       <c r="H2">
         <v>0.8637362464264416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>0.7066066117790256</v>
+      </c>
+      <c r="D3">
+        <v>0.799373040752351</v>
+      </c>
+      <c r="E3">
+        <v>0.799373040752351</v>
+      </c>
+      <c r="F3">
+        <v>0.7501326793148654</v>
+      </c>
+      <c r="G3">
+        <v>0.8929989550679204</v>
+      </c>
+      <c r="H3">
+        <v>0.8858856721745231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>0.7308807134894091</v>
+      </c>
+      <c r="D4">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="E4">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="F4">
+        <v>0.7843043426247159</v>
+      </c>
+      <c r="G4">
+        <v>0.8974358974358975</v>
+      </c>
+      <c r="H4">
+        <v>0.8959694979310845</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>0.963528924686665</v>
+      </c>
+      <c r="D5">
+        <v>0.9815950920245399</v>
+      </c>
+      <c r="E5">
+        <v>0.9815950920245399</v>
+      </c>
+      <c r="F5">
+        <v>0.9724781097456743</v>
+      </c>
+      <c r="G5">
+        <v>0.986196319018405</v>
+      </c>
+      <c r="H5">
+        <v>0.9815950920245399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>0.3965336134453781</v>
+      </c>
+      <c r="D6">
+        <v>0.5588235294117647</v>
+      </c>
+      <c r="E6">
+        <v>0.5588235294117647</v>
+      </c>
+      <c r="F6">
+        <v>0.4638941887915144</v>
+      </c>
+      <c r="G6">
+        <v>0.7573529411764707</v>
+      </c>
+      <c r="H6">
+        <v>0.7266402516812028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>0.3572111757644141</v>
+      </c>
+      <c r="D7">
+        <v>0.4601769911504425</v>
+      </c>
+      <c r="E7">
+        <v>0.4601769911504425</v>
+      </c>
+      <c r="F7">
+        <v>0.402208817602574</v>
+      </c>
+      <c r="G7">
+        <v>0.7108091024020228</v>
+      </c>
+      <c r="H7">
+        <v>0.6615087970753402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>0.6579536638444109</v>
+      </c>
+      <c r="D8">
+        <v>0.7123287671232876</v>
+      </c>
+      <c r="E8">
+        <v>0.7123287671232876</v>
+      </c>
+      <c r="F8">
+        <v>0.6840623678719375</v>
+      </c>
+      <c r="G8">
+        <v>0.8441780821917808</v>
+      </c>
+      <c r="H8">
+        <v>0.8286822100731979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>0.9106415387014108</v>
+      </c>
+      <c r="D9">
+        <v>0.9225352112676056</v>
+      </c>
+      <c r="E9">
+        <v>0.9225352112676056</v>
+      </c>
+      <c r="F9">
+        <v>0.9165497918399439</v>
+      </c>
+      <c r="G9">
+        <v>0.8441780821917808</v>
+      </c>
+      <c r="H9">
+        <v>0.5728396511140413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>0.6632027633464673</v>
+      </c>
+      <c r="D10">
+        <v>0.6928327645051194</v>
+      </c>
+      <c r="E10">
+        <v>0.6928327645051194</v>
+      </c>
+      <c r="F10">
+        <v>0.6776940493362307</v>
+      </c>
+      <c r="G10">
+        <v>0.8244758654314968</v>
+      </c>
+      <c r="H10">
+        <v>0.8138983638375883</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>0.5611591023355729</v>
+      </c>
+      <c r="D11">
+        <v>0.6256410256410256</v>
+      </c>
+      <c r="E11">
+        <v>0.6256410256410256</v>
+      </c>
+      <c r="F11">
+        <v>0.5916483290772746</v>
+      </c>
+      <c r="G11">
+        <v>0.8056213017751479</v>
+      </c>
+      <c r="H11">
+        <v>0.7831436365700677</v>
       </c>
     </row>
   </sheetData>
